--- a/Data/for model/in/car_trait_covariates_v2.xlsx
+++ b/Data/for model/in/car_trait_covariates_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmgor\Dropbox\Taylor Chapter 3\Data\for model\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmgor\Dropbox\Taylor Chapter 3\Predict_Maturity\Data\for model\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2416A20D-E0D8-4F5F-840A-A9C8AECA58F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A631B4EF-99EF-4E42-8D05-72BAE8B063CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3C734E7-D8BC-4E7F-AC48-86FA5077B458}"/>
   </bookViews>
@@ -23,9 +23,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="513">
   <si>
     <t>Carcharhinus obscurus</t>
   </si>
@@ -1629,6 +1630,12 @@
     <t>Smale M (1991) Occurrence and feeding of three shark species,
 Carcharhinus brachyurus, C. obscurus and Sphyrna
 zygaena, on the Eastern Cape coast of South Africa. South African Journal of Marine Science: 11(1) 31-42</t>
+  </si>
+  <si>
+    <t>Carcharodon carcharhias</t>
+  </si>
+  <si>
+    <t>Great White Shark</t>
   </si>
 </sst>
 </file>
@@ -3717,7 +3724,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDA82BBA-3912-4089-836D-208B62B61627}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDA82BBA-3912-4089-836D-208B62B61627}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A115" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -4210,7 +4217,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8FA7FD22-A7A5-4B40-8979-BAC92B090147}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8FA7FD22-A7A5-4B40-8979-BAC92B090147}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G3:H9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -4326,8 +4333,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF559755-7CB1-466D-8556-3DE0F98FD3AE}" name="Table1" displayName="Table1" ref="A1:AJ137" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
-  <autoFilter ref="A1:AJ137" xr:uid="{FAFA01B3-382B-413D-86A8-669EF3460736}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF559755-7CB1-466D-8556-3DE0F98FD3AE}" name="Table1" displayName="Table1" ref="A1:AJ138" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <autoFilter ref="A1:AJ138" xr:uid="{FAFA01B3-382B-413D-86A8-669EF3460736}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ137">
     <sortCondition ref="A1:A137"/>
   </sortState>
@@ -4672,11 +4679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D535D6-13AF-4E71-A304-F079C7623F87}">
-  <dimension ref="A1:AK137"/>
+  <dimension ref="A1:AK138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y139" sqref="Y139"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9662,7 +9669,7 @@
     </row>
     <row r="75" spans="1:36" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>161</v>
@@ -13740,6 +13747,51 @@
       <c r="AJ137" s="20" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="138" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A138" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="B138" s="40" t="s">
+        <v>512</v>
+      </c>
+      <c r="C138" s="26"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="28"/>
+      <c r="K138" s="20"/>
+      <c r="L138" s="29"/>
+      <c r="M138" s="20"/>
+      <c r="N138" s="37"/>
+      <c r="O138" s="20"/>
+      <c r="P138" s="41"/>
+      <c r="Q138" s="20"/>
+      <c r="R138" s="20"/>
+      <c r="S138" s="20"/>
+      <c r="T138" s="29"/>
+      <c r="U138" s="29"/>
+      <c r="V138" s="46"/>
+      <c r="W138" s="20"/>
+      <c r="X138" s="29"/>
+      <c r="Y138" s="20"/>
+      <c r="Z138" s="29"/>
+      <c r="AA138" s="30"/>
+      <c r="AB138" s="40">
+        <f>35-17</f>
+        <v>18</v>
+      </c>
+      <c r="AC138" s="20"/>
+      <c r="AD138" s="20"/>
+      <c r="AE138" s="20"/>
+      <c r="AF138" s="20"/>
+      <c r="AG138" s="37"/>
+      <c r="AH138" s="37"/>
+      <c r="AI138" s="37"/>
+      <c r="AJ138" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -14153,7 +14205,8 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="3" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="29.21875" customWidth="1"/>
     <col min="8" max="8" width="23.77734375" customWidth="1"/>
   </cols>
